--- a/plots/countries/plot data/Poland.xlsx
+++ b/plots/countries/plot data/Poland.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>49.2913237392406</v>
+        <v>49.3326062840604</v>
       </c>
     </row>
     <row r="3">
@@ -585,7 +585,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>235.229434315917</v>
+        <v>235.232655499317</v>
       </c>
     </row>
     <row r="7">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>20.7410630753527</v>
+        <v>20.7443762398503</v>
       </c>
     </row>
     <row r="8">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>-28.3369914397269</v>
+        <v>-33.2469133499577</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>19.0545711971687</v>
+        <v>19.3958391245902</v>
       </c>
     </row>
     <row r="11">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>42.5144933864879</v>
+        <v>42.5518479463698</v>
       </c>
     </row>
     <row r="12">
@@ -745,7 +745,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>39.6596580280624</v>
+        <v>39.6628792114624</v>
       </c>
     </row>
     <row r="15">
@@ -765,7 +765,7 @@
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>229.353193426533</v>
+        <v>229.356414609933</v>
       </c>
     </row>
     <row r="16">
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>21.7952025731681</v>
+        <v>21.7941117604955</v>
       </c>
     </row>
     <row r="17">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-21.423882585675</v>
+        <v>-26.1529432014781</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>18.5810157280033</v>
+        <v>18.5981215764796</v>
       </c>
     </row>
     <row r="20">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>38.641152167955</v>
+        <v>38.666883485709</v>
       </c>
     </row>
     <row r="21">
@@ -925,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>36.7213692980286</v>
+        <v>36.7342540316286</v>
       </c>
     </row>
     <row r="24">
@@ -945,7 +945,7 @@
         <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>221.043880215309</v>
+        <v>221.047101398709</v>
       </c>
     </row>
     <row r="25">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>22.2246815586576</v>
+        <v>22.2060450502219</v>
       </c>
     </row>
     <row r="26">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.352445177212445</v>
+        <v>-4.90822445308391</v>
       </c>
     </row>
     <row r="28">
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>18.3134858444277</v>
+        <v>18.2246730852124</v>
       </c>
     </row>
     <row r="29">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>37.2127003371004</v>
+        <v>37.2447849808897</v>
       </c>
     </row>
     <row r="30">
@@ -1105,7 +1105,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="n">
-        <v>47.7334253093486</v>
+        <v>47.7559735931486</v>
       </c>
     </row>
     <row r="33">
@@ -1125,7 +1125,7 @@
         <v>17</v>
       </c>
       <c r="F33" t="n">
-        <v>207.86746331379</v>
+        <v>207.87390568059</v>
       </c>
     </row>
     <row r="34">
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>21.790120713131</v>
+        <v>21.7337445563183</v>
       </c>
     </row>
     <row r="35">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-8.20722456477261</v>
+        <v>-12.5839775624151</v>
       </c>
     </row>
     <row r="37">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>17.8726773898671</v>
+        <v>17.6888842815007</v>
       </c>
     </row>
     <row r="38">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>36.9222775214122</v>
+        <v>36.950807328567</v>
       </c>
     </row>
     <row r="39">
@@ -1285,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="F41" t="n">
-        <v>48.7618941887549</v>
+        <v>48.7747789223549</v>
       </c>
     </row>
     <row r="42">
@@ -1305,7 +1305,7 @@
         <v>17</v>
       </c>
       <c r="F42" t="n">
-        <v>206.136462407794</v>
+        <v>206.139683591194</v>
       </c>
     </row>
     <row r="43">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>22.9564013205589</v>
+        <v>22.8324862202935</v>
       </c>
     </row>
     <row r="44">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-7.90188531074117</v>
+        <v>-12.0997996516874</v>
       </c>
     </row>
     <row r="46">
@@ -1385,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="n">
-        <v>17.3996351588482</v>
+        <v>17.2626838517275</v>
       </c>
     </row>
     <row r="47">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>36.7247415059</v>
+        <v>36.7575357795979</v>
       </c>
     </row>
     <row r="48">
@@ -1425,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="F48" t="n">
-        <v>68.2605317829862</v>
+        <v>68.2960592331862</v>
       </c>
     </row>
     <row r="49">
@@ -1465,7 +1465,7 @@
         <v>17</v>
       </c>
       <c r="F50" t="n">
-        <v>63.3243932092034</v>
+        <v>63.4017016108034</v>
       </c>
     </row>
     <row r="51">
@@ -1485,7 +1485,7 @@
         <v>17</v>
       </c>
       <c r="F51" t="n">
-        <v>191.213855117809</v>
+        <v>191.220297484609</v>
       </c>
     </row>
     <row r="52">
@@ -1505,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>23.8165014972529</v>
+        <v>23.6070701490814</v>
       </c>
     </row>
     <row r="53">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>22.1464609914598</v>
+        <v>22.0113521614492</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-18.3278924124475</v>
+        <v>-22.3479427274636</v>
       </c>
     </row>
     <row r="55">
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>16.9421549078099</v>
+        <v>16.6950511493425</v>
       </c>
     </row>
     <row r="56">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>35.7559111753646</v>
+        <v>35.7914103057222</v>
       </c>
     </row>
     <row r="57">
@@ -1605,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="F57" t="n">
-        <v>69.6923474102217</v>
+        <v>69.7343343968217</v>
       </c>
     </row>
     <row r="58">
@@ -1645,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>67.871958151119</v>
+        <v>67.920275902119</v>
       </c>
     </row>
     <row r="60">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>27.0089683494013</v>
+        <v>26.7007350908024</v>
       </c>
     </row>
     <row r="62">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>21.3055305216751</v>
+        <v>21.1639762303708</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-35.9337201072839</v>
+        <v>-39.8194571745407</v>
       </c>
     </row>
     <row r="64">
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>16.4810546618292</v>
+        <v>16.1498751516897</v>
       </c>
     </row>
     <row r="65">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>36.5623969078462</v>
+        <v>36.5976123986128</v>
       </c>
     </row>
     <row r="66">
@@ -1785,7 +1785,7 @@
         <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>66.2766468367155</v>
+        <v>66.4090673329155</v>
       </c>
     </row>
     <row r="67">
@@ -1825,7 +1825,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>64.0482323821501</v>
+        <v>64.1352043339501</v>
       </c>
     </row>
     <row r="69">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>28.5978743864427</v>
+        <v>28.2222444192745</v>
       </c>
     </row>
     <row r="71">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>22.2075150445665</v>
+        <v>22.0593006252097</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-36.0208449013018</v>
+        <v>-39.7296272264649</v>
       </c>
     </row>
     <row r="73">
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="n">
-        <v>15.9944380717346</v>
+        <v>15.5462392754208</v>
       </c>
     </row>
     <row r="74">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>36.4571652258226</v>
+        <v>36.4925617892885</v>
       </c>
     </row>
     <row r="75">
@@ -1965,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="F75" t="n">
-        <v>55.0311296247274</v>
+        <v>55.1861584983274</v>
       </c>
     </row>
     <row r="76">
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="F77" t="n">
-        <v>53.7857713421754</v>
+        <v>53.8083196259754</v>
       </c>
     </row>
     <row r="78">
@@ -2025,7 +2025,7 @@
         <v>17</v>
       </c>
       <c r="F78" t="n">
-        <v>184.704563675998</v>
+        <v>184.707784859398</v>
       </c>
     </row>
     <row r="79">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>30.1727199324835</v>
+        <v>29.7066670258955</v>
       </c>
     </row>
     <row r="80">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>20.6133008681178</v>
+        <v>20.4595842245608</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-41.9032053728386</v>
+        <v>-45.475196158552</v>
       </c>
     </row>
     <row r="82">
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>15.5580256996928</v>
+        <v>14.9738134463673</v>
       </c>
     </row>
     <row r="83">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>34.9889043155144</v>
+        <v>35.0201296079789</v>
       </c>
     </row>
     <row r="84">
@@ -2145,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>56.7706208949774</v>
+        <v>56.9127306957774</v>
       </c>
     </row>
     <row r="85">
@@ -2185,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="F86" t="n">
-        <v>45.9164391651555</v>
+        <v>45.9293238987555</v>
       </c>
     </row>
     <row r="87">
@@ -2205,7 +2205,7 @@
         <v>17</v>
       </c>
       <c r="F87" t="n">
-        <v>178.919793213315</v>
+        <v>178.923014396715</v>
       </c>
     </row>
     <row r="88">
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>32.9458806738429</v>
+        <v>32.3273093209095</v>
       </c>
     </row>
     <row r="89">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>19.6331066507749</v>
+        <v>19.4689229316304</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-39.2952793772519</v>
+        <v>-42.6694262961125</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>15.0382250491467</v>
+        <v>14.4160791929192</v>
       </c>
     </row>
     <row r="92">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>33.2058325413445</v>
+        <v>33.2329154713651</v>
       </c>
     </row>
     <row r="93">
@@ -2325,7 +2325,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="n">
-        <v>49.0818913924811</v>
+        <v>49.2143118886811</v>
       </c>
     </row>
     <row r="94">
@@ -2365,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="F95" t="n">
-        <v>45.9629004006063</v>
+        <v>45.9790063176063</v>
       </c>
     </row>
     <row r="96">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>29.0707132499989</v>
+        <v>28.4542562898947</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>22.2244364090513</v>
+        <v>22.1177427515594</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-36.1011934801899</v>
+        <v>-39.2756984858094</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>14.4997414136962</v>
+        <v>13.7174222970919</v>
       </c>
     </row>
     <row r="101">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>32.6152445885582</v>
+        <v>32.6462012471424</v>
       </c>
     </row>
     <row r="102">
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>52.1974815315843</v>
+        <v>52.2459280545843</v>
       </c>
     </row>
     <row r="103">
@@ -2545,7 +2545,7 @@
         <v>17</v>
       </c>
       <c r="F104" t="n">
-        <v>40.6222901501161</v>
+        <v>40.6287325169161</v>
       </c>
     </row>
     <row r="105">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>28.8739267776278</v>
+        <v>28.2223302769559</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>20.7994542303131</v>
+        <v>20.6419708064972</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-28.5529986522966</v>
+        <v>-31.5441497163564</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>13.9370304914922</v>
+        <v>13.0675256882604</v>
       </c>
     </row>
     <row r="110">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>31.6645752193439</v>
+        <v>31.6920588162035</v>
       </c>
     </row>
     <row r="111">
@@ -2685,7 +2685,7 @@
         <v>17</v>
       </c>
       <c r="F111" t="n">
-        <v>55.2942250428733</v>
+        <v>55.3232929566733</v>
       </c>
     </row>
     <row r="112">
@@ -2725,7 +2725,7 @@
         <v>17</v>
       </c>
       <c r="F113" t="n">
-        <v>38.4694050598526</v>
+        <v>38.4758474266526</v>
       </c>
     </row>
     <row r="114">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>27.8600924171774</v>
+        <v>27.2600046434146</v>
       </c>
     </row>
     <row r="116">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>19.4601693711904</v>
+        <v>19.2064935104274</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-37.4543628891766</v>
+        <v>-40.3366166866013</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>13.4138713097233</v>
+        <v>12.4881666236999</v>
       </c>
     </row>
     <row r="119">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>31.1907915738527</v>
+        <v>31.21330852488</v>
       </c>
     </row>
     <row r="120">
@@ -2865,7 +2865,7 @@
         <v>17</v>
       </c>
       <c r="F120" t="n">
-        <v>55.7974000659492</v>
+        <v>55.8167786751492</v>
       </c>
     </row>
     <row r="121">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>29.8744643166967</v>
+        <v>29.7367571541122</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>22.2814273939793</v>
+        <v>21.9011520291324</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>-39.6359752385062</v>
+        <v>-42.3808724763255</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>12.9360473898812</v>
+        <v>11.9212903384779</v>
       </c>
     </row>
     <row r="128">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>31.2514016784635</v>
+        <v>31.279196339085</v>
       </c>
     </row>
     <row r="129">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>33.7843619866729</v>
+        <v>33.6428743136416</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>23.9391977724634</v>
+        <v>23.4654532530754</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-51.0479434720855</v>
+        <v>-53.6622829374103</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>12.3633076931533</v>
+        <v>11.4637868451073</v>
       </c>
     </row>
     <row r="137">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>31.6593533894959</v>
+        <v>31.6857738148338</v>
       </c>
     </row>
     <row r="138">
@@ -3245,7 +3245,7 @@
         <v>17</v>
       </c>
       <c r="F139" t="n">
-        <v>26.1913216714231</v>
+        <v>26.1913216714232</v>
       </c>
     </row>
     <row r="140">
@@ -3265,7 +3265,7 @@
         <v>17</v>
       </c>
       <c r="F140" t="n">
-        <v>33.8723352356152</v>
+        <v>33.8755564190152</v>
       </c>
     </row>
     <row r="141">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>36.2598869311422</v>
+        <v>36.1376126390216</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>23.7320149805072</v>
+        <v>23.1848906919847</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-50.5746933258958</v>
+        <v>-53.0208496665972</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>11.6733938017601</v>
+        <v>10.9540835286486</v>
       </c>
     </row>
     <row r="146">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>32.1486533640403</v>
+        <v>32.1710408576952</v>
       </c>
     </row>
     <row r="147">
@@ -3445,7 +3445,7 @@
         <v>17</v>
       </c>
       <c r="F149" t="n">
-        <v>33.8044825384839</v>
+        <v>33.8077037218839</v>
       </c>
     </row>
     <row r="150">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>40.1286908979813</v>
+        <v>40.0037708678027</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>26.007167708437</v>
+        <v>25.4008562052374</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-44.8201273185152</v>
+        <v>-47.0679344896611</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>10.8990893660756</v>
+        <v>10.3036577394343</v>
       </c>
     </row>
     <row r="155">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>32.8437194610614</v>
+        <v>32.8745650111698</v>
       </c>
     </row>
     <row r="156">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>44.271793370981</v>
+        <v>44.1475664267292</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>28.4022384409158</v>
+        <v>27.6973910375415</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-38.0919349377873</v>
+        <v>-40.2522051737378</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>10.1210505700646</v>
+        <v>9.69720772291637</v>
       </c>
     </row>
     <row r="164">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>32.939435076799</v>
+        <v>32.9676038951528</v>
       </c>
     </row>
     <row r="165">
@@ -3765,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="F165" t="n">
-        <v>60.0071564490989</v>
+        <v>60.0103862172989</v>
       </c>
     </row>
     <row r="166">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>46.2547235945507</v>
+        <v>46.1335410511454</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>27.1218213119198</v>
+        <v>26.3150172435602</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-37.8948739098392</v>
+        <v>-39.8518455991225</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>9.00211466207772</v>
+        <v>8.79330457028589</v>
       </c>
     </row>
     <row r="173">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>32.2567931610726</v>
+        <v>32.2863646772296</v>
       </c>
     </row>
     <row r="174">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="F174" t="n">
-        <v>61.1202010316919</v>
+        <v>61.1265425856919</v>
       </c>
     </row>
     <row r="175">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>46.8510182755116</v>
+        <v>46.7992487298667</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>21.7365133201588</v>
+        <v>20.8836545243091</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-37.9513247951822</v>
+        <v>-39.8180899907467</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>8.30750137209116</v>
+        <v>8.11241067003419</v>
       </c>
     </row>
     <row r="182">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>31.6595853623879</v>
+        <v>31.6905583414435</v>
       </c>
     </row>
     <row r="183">
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>67.7249446514124</v>
+        <v>67.7281154284124</v>
       </c>
     </row>
     <row r="184">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>49.3749584594932</v>
+        <v>49.3008811493715</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>22.8822841048806</v>
+        <v>21.954133988526</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-36.3347219004328</v>
+        <v>-38.0526323703451</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>7.71041846723432</v>
+        <v>7.41210607243964</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>31.9394722804668</v>
+        <v>31.9704324908087</v>
       </c>
     </row>
     <row r="192">
@@ -4305,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="n">
-        <v>60.9457039807243</v>
+        <v>60.9488747577243</v>
       </c>
     </row>
     <row r="193">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>49.9700064911454</v>
+        <v>49.8997402470956</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>25.638894522538</v>
+        <v>24.5997505043696</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-41.9662022670942</v>
+        <v>-43.5158280914827</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>6.8673556527017</v>
+        <v>6.62632263904487</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>31.7673324557716</v>
+        <v>31.7983139717482</v>
       </c>
     </row>
     <row r="201">
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="F201" t="n">
-        <v>62.7161504895673</v>
+        <v>62.7193212665673</v>
       </c>
     </row>
     <row r="202">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>48.0251578489826</v>
+        <v>47.988248883507</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>24.6355867996078</v>
+        <v>23.6552791689802</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-42.5253876705943</v>
+        <v>-43.8998600857146</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>6.37123327698225</v>
+        <v>6.33197717102787</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>32.4499113083599</v>
+        <v>32.4809949728005</v>
       </c>
     </row>
     <row r="210">
@@ -4665,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="F210" t="n">
-        <v>60.6518876277498</v>
+        <v>60.6582291817498</v>
       </c>
     </row>
     <row r="211">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>45.1727965477351</v>
+        <v>45.1439086347185</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>23.6276724684428</v>
+        <v>22.886976194335</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-44.9066475094603</v>
+        <v>-46.0965396320163</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>5.87222468387731</v>
+        <v>5.96539589224528</v>
       </c>
     </row>
     <row r="218">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>32.3928056182168</v>
+        <v>32.4243200998282</v>
       </c>
     </row>
     <row r="219">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>55.8715104145188</v>
+        <v>55.8746811915188</v>
       </c>
     </row>
     <row r="220">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>45.5163020823017</v>
+        <v>45.4902865116992</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>25.1074733578183</v>
+        <v>24.2412359924679</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>-37.5184367521556</v>
+        <v>-38.5257315295808</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>5.48385158601712</v>
+        <v>5.74806529859763</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>31.775057944838</v>
+        <v>31.7968607298866</v>
       </c>
     </row>
     <row r="228">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>48.0073576879476</v>
+        <v>47.9804745325249</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>24.3569051853847</v>
+        <v>23.6516040384592</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>-34.0999598200037</v>
+        <v>-34.9220238409687</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>5.10406651534833</v>
+        <v>5.39306938947489</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>32.1530671676627</v>
+        <v>32.1814434171234</v>
       </c>
     </row>
     <row r="237">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>54.7097008752423</v>
+        <v>54.6724475503538</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>24.5575596495438</v>
+        <v>23.8216206395459</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>-40.7814726052973</v>
+        <v>-41.6914983538895</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>4.68141060210526</v>
+        <v>4.96458761552506</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>33.4929011826839</v>
+        <v>33.5246798899089</v>
       </c>
     </row>
     <row r="246">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>59.0170156513828</v>
+        <v>59.0191400719728</v>
       </c>
     </row>
     <row r="247">
@@ -5425,7 +5425,7 @@
         <v>17</v>
       </c>
       <c r="F248" t="n">
-        <v>31.0290421508835</v>
+        <v>31.0293931716225</v>
       </c>
     </row>
     <row r="249">
@@ -5445,7 +5445,7 @@
         <v>17</v>
       </c>
       <c r="F249" t="n">
-        <v>165.252283544432</v>
+        <v>165.252346791412</v>
       </c>
     </row>
     <row r="250">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>63.175429266183</v>
+        <v>63.1181034646227</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>25.0686977982404</v>
+        <v>24.3860566881308</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>-41.6620288286567</v>
+        <v>-42.3632068632068</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>4.68708511336297</v>
+        <v>4.95231699393849</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>33.8557902379687</v>
+        <v>33.8252256625238</v>
       </c>
     </row>
     <row r="255">
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="n">
-        <v>31.5520398591214</v>
+        <v>31.5525806208004</v>
       </c>
     </row>
     <row r="258">
@@ -5625,7 +5625,7 @@
         <v>17</v>
       </c>
       <c r="F258" t="n">
-        <v>163.302549724952</v>
+        <v>163.302575023744</v>
       </c>
     </row>
     <row r="259">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>65.042538589428</v>
+        <v>64.9757604075507</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>25.563332871104</v>
+        <v>24.9499851765765</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>-40.9603034560945</v>
+        <v>-41.8220565204731</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>4.72409555970032</v>
+        <v>4.96948473625745</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>32.7861312038812</v>
+        <v>32.8296300866156</v>
       </c>
     </row>
     <row r="264">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>52.0687043601288</v>
+        <v>52.0691007072538</v>
       </c>
     </row>
     <row r="265">
@@ -5785,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="F266" t="n">
-        <v>31.1867885287087</v>
+        <v>31.1871585235417</v>
       </c>
     </row>
     <row r="267">
@@ -5805,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="F267" t="n">
-        <v>150.547605597284</v>
+        <v>150.54761824668</v>
       </c>
     </row>
     <row r="268">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>66.0437168192058</v>
+        <v>65.9740173179856</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>25.0811165483215</v>
+        <v>24.6553915706296</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>-22.561297413063</v>
+        <v>-23.227307480639</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>4.53817252135351</v>
+        <v>4.81283268546888</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>34.2254940706024</v>
+        <v>34.1489497586859</v>
       </c>
     </row>
     <row r="273">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>52.9752187181362</v>
+        <v>52.9759923877242</v>
       </c>
     </row>
     <row r="274">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>28.9068264327262</v>
+        <v>28.9071236935322</v>
       </c>
     </row>
     <row r="276">
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
       <c r="F276" t="n">
-        <v>139.603239602707</v>
+        <v>139.603255414452</v>
       </c>
     </row>
     <row r="277">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>63.0841431137003</v>
+        <v>63.0153364670543</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>24.5265881838706</v>
+        <v>24.1583529954071</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>-23.330174100199</v>
+        <v>-24.0575580338065</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>4.16083218736632</v>
+        <v>4.49314375871643</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>34.1775320926444</v>
+        <v>34.1506448595307</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>54.4089913323676</v>
+        <v>54.4101577962486</v>
       </c>
     </row>
     <row r="283">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>30.1063508996619</v>
+        <v>30.1618792608009</v>
       </c>
     </row>
     <row r="285">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>160.223078278635</v>
+        <v>160.223097252729</v>
       </c>
     </row>
     <row r="286">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>68.2713337773594</v>
+        <v>68.1869819079843</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>24.5887599679238</v>
+        <v>24.2111438564324</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>-23.9166615571462</v>
+        <v>-24.8750672214276</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>4.05238255061625</v>
+        <v>4.38299326060019</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>33.2969846774532</v>
+        <v>33.3476081032852</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>47.4411885953601</v>
+        <v>47.4225525355957</v>
       </c>
     </row>
     <row r="292">
@@ -6305,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="n">
-        <v>22.0297471350264</v>
+        <v>22.0288091350264</v>
       </c>
     </row>
     <row r="293">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>27.8351361027382</v>
+        <v>27.8379855565631</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>152.691012956798</v>
+        <v>153.013849388532</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>69.3327135293599</v>
+        <v>69.2122570358657</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>23.645030165566</v>
+        <v>23.4703087203481</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>-35.6443325263695</v>
+        <v>-36.4498476973822</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>3.81839446747637</v>
+        <v>4.12496268774138</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>34.2648531001426</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>47.0969402928265</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>20.558548345505</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>26.4169383155434</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>127.571365813735</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>68.3456081484085</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>19.5925681357295</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-32.656156744854</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>4.21358854575557</v>
       </c>
     </row>
   </sheetData>
